--- a/results/2023_05_27_cage_2_reward_training/proc/subject_rows_with_date_columns_dataframes/latencies_less_than_10_seconds_ratio/cage_2_date_20230526_20230528/subject_to_date_less_than_10_seconds_overlap_adjusted_latencies_ratios_cage_2_date_20230526_20230528.xlsx
+++ b/results/2023_05_27_cage_2_reward_training/proc/subject_rows_with_date_columns_dataframes/latencies_less_than_10_seconds_ratio/cage_2_date_20230526_20230528/subject_to_date_less_than_10_seconds_overlap_adjusted_latencies_ratios_cage_2_date_20230526_20230528.xlsx
@@ -481,7 +481,9 @@
       <c r="C3" t="n">
         <v>0.358974358974359</v>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>0.7948717948717948</v>
+      </c>
       <c r="E3" t="n">
         <v>2</v>
       </c>
